--- a/data/trans_dic/P36$fruta-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04902416223154579</v>
+        <v>0.04793779251284328</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07103838780757857</v>
+        <v>0.07174536371726649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06412537253523976</v>
+        <v>0.06340893029745727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05711858856730929</v>
+        <v>0.05757529739101289</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0846882356810191</v>
+        <v>0.0826109336084887</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07339701196577124</v>
+        <v>0.07323721981482111</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05556195184943606</v>
+        <v>0.05671985575994486</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08218943620022445</v>
+        <v>0.08333246052917437</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07390060487932341</v>
+        <v>0.07424184406412243</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0794437662580014</v>
+        <v>0.079343899943377</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1093054204680088</v>
+        <v>0.1107478216559826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1027345419184192</v>
+        <v>0.1019900297040572</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08468262906529925</v>
+        <v>0.08677545594409213</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1191963417734783</v>
+        <v>0.1154802871493935</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1110471016287531</v>
+        <v>0.1120426855523855</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07727455013924818</v>
+        <v>0.07762119053971281</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1081345278235496</v>
+        <v>0.1084707369896735</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1008937126536042</v>
+        <v>0.09969314358985309</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06514807664203377</v>
+        <v>0.06477083753967541</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1066842343197379</v>
+        <v>0.1069199927269153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1223203596020927</v>
+        <v>0.1225664498786537</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1073656017162366</v>
+        <v>0.1066080435242864</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1138423092267797</v>
+        <v>0.1130946495452363</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1265837613794067</v>
+        <v>0.1272645566033282</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08893345270976639</v>
+        <v>0.08888559420708315</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1148387352193118</v>
+        <v>0.1148774774562143</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1297881329665134</v>
+        <v>0.1295667737056491</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09125262317767759</v>
+        <v>0.09299609324181554</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1372967754871469</v>
+        <v>0.1384858334830258</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.154344716923155</v>
+        <v>0.1531687458211681</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1379549517780796</v>
+        <v>0.1398264884629283</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1457504487785507</v>
+        <v>0.1458707218489262</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1581424548224005</v>
+        <v>0.1593764768237939</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1104328010419687</v>
+        <v>0.1106706400151217</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1374611663396424</v>
+        <v>0.1377034647700077</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1522286490071841</v>
+        <v>0.1516951108577348</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09780166913782631</v>
+        <v>0.09717030617395576</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.13577879132048</v>
+        <v>0.1391369608507544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1287689269960557</v>
+        <v>0.1296825946689652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1241356895377303</v>
+        <v>0.1246991156591566</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1485724291566373</v>
+        <v>0.1485929684727217</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1434787980266066</v>
+        <v>0.1428202556731057</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1170371249501548</v>
+        <v>0.1159336623756572</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1537254862674535</v>
+        <v>0.1536500736056896</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1453602692037138</v>
+        <v>0.145119389842764</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1580148971511328</v>
+        <v>0.1573318928175651</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2121973670399971</v>
+        <v>0.2113376150309086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1933684860944289</v>
+        <v>0.1967191986976256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1922650017997555</v>
+        <v>0.1942366432129086</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2277456856495208</v>
+        <v>0.2320753960633157</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2066713242987955</v>
+        <v>0.2089149064327659</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1607840597703535</v>
+        <v>0.1628144879225799</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2063885848984433</v>
+        <v>0.2065381994477222</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1921452004877314</v>
+        <v>0.1911414482663153</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07145092058494967</v>
+        <v>0.07177480802654362</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1091247593636157</v>
+        <v>0.1085847131033469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1181610203260804</v>
+        <v>0.118813590422724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0956539817037276</v>
+        <v>0.09502296210320423</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1135564561571496</v>
+        <v>0.1147189945235574</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1224270688558207</v>
+        <v>0.1204714489768694</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08650196272691862</v>
+        <v>0.08698712821836836</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1149247876050024</v>
+        <v>0.1141195428120018</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1242784103408112</v>
+        <v>0.1229372058443069</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09102700855034014</v>
+        <v>0.09133421457372747</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.133407253972456</v>
+        <v>0.1320388034745663</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1427508921454586</v>
+        <v>0.1413824686852571</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.117148927162351</v>
+        <v>0.1173653266526122</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1374689749524088</v>
+        <v>0.1370287236075275</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.144544297930998</v>
+        <v>0.1432611554840505</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1005334747727446</v>
+        <v>0.101472852058929</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.132071574384051</v>
+        <v>0.1307677915665675</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1400574808883303</v>
+        <v>0.1396155289903334</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>50384</v>
+        <v>49268</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>69095</v>
+        <v>69783</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>48258</v>
+        <v>47719</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>75005</v>
+        <v>75604</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>113123</v>
+        <v>110349</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>72917</v>
+        <v>72759</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>130064</v>
+        <v>132775</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>189727</v>
+        <v>192365</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>129033</v>
+        <v>129628</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>81648</v>
+        <v>81545</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>106315</v>
+        <v>107718</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>77314</v>
+        <v>76754</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>111200</v>
+        <v>113948</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>159218</v>
+        <v>154254</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>110322</v>
+        <v>111311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>180891</v>
+        <v>181702</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>249619</v>
+        <v>250395</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>176163</v>
+        <v>174067</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>110259</v>
+        <v>109620</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>209218</v>
+        <v>209680</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>253717</v>
+        <v>254227</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>170241</v>
+        <v>169040</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>199779</v>
+        <v>198467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>251426</v>
+        <v>252778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>291529</v>
+        <v>291372</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>426737</v>
+        <v>426881</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>526997</v>
+        <v>526098</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>154439</v>
+        <v>157389</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>269252</v>
+        <v>271584</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>320142</v>
+        <v>317702</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>218745</v>
+        <v>221712</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>255773</v>
+        <v>255984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>314109</v>
+        <v>316560</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>362005</v>
+        <v>362784</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>510801</v>
+        <v>511702</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>618115</v>
+        <v>615949</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>53756</v>
+        <v>53409</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>65193</v>
+        <v>66805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>70422</v>
+        <v>70922</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>59140</v>
+        <v>59408</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>67967</v>
+        <v>67977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>78790</v>
+        <v>78428</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>120086</v>
+        <v>118954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>144135</v>
+        <v>144064</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>159319</v>
+        <v>159055</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>86851</v>
+        <v>86476</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>101885</v>
+        <v>101472</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>105751</v>
+        <v>107583</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>91597</v>
+        <v>92537</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>104187</v>
+        <v>106168</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>113491</v>
+        <v>114724</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>164973</v>
+        <v>167056</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>193512</v>
+        <v>193652</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>210596</v>
+        <v>209496</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>233631</v>
+        <v>234690</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>372539</v>
+        <v>370695</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>398634</v>
+        <v>400835</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>322849</v>
+        <v>320719</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>402910</v>
+        <v>407035</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>432027</v>
+        <v>425125</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>574805</v>
+        <v>578029</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>800105</v>
+        <v>794499</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>857831</v>
+        <v>848574</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>297642</v>
+        <v>298646</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>455436</v>
+        <v>450765</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>481591</v>
+        <v>476975</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>395398</v>
+        <v>396128</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>487755</v>
+        <v>486193</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>510075</v>
+        <v>505547</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>668044</v>
+        <v>674286</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>919480</v>
+        <v>910404</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>966746</v>
+        <v>963696</v>
       </c>
     </row>
     <row r="20">
